--- a/data/Curaco de Vélez.xlsx
+++ b/data/Curaco de Vélez.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Curaco de Vélez.xlsx
+++ b/data/Curaco de Vélez.xlsx
@@ -1495,7 +1495,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SALMONES AYSÉN S.A.</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">

--- a/data/Curaco de Vélez.xlsx
+++ b/data/Curaco de Vélez.xlsx
@@ -2311,7 +2311,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ORIZON S.A.</t>
+          <t>Empresa Pesquera Apiao S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">

--- a/data/Curaco de Vélez.xlsx
+++ b/data/Curaco de Vélez.xlsx
@@ -2311,7 +2311,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Empresa Pesquera Apiao S.A.</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">

--- a/data/Curaco de Vélez.xlsx
+++ b/data/Curaco de Vélez.xlsx
@@ -1735,7 +1735,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Pesquera San José S.A.</t>
+          <t>EMPRESA PESQUERA APIAO S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">

--- a/data/Curaco de Vélez.xlsx
+++ b/data/Curaco de Vélez.xlsx
@@ -1495,7 +1495,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Salmones Aysén S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F24" t="n">
